--- a/teaching/traditional_assets/database/data/russia/russia_banks_regional.xlsx
+++ b/teaching/traditional_assets/database/data/russia/russia_banks_regional.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.11555</v>
+        <v>0.06632</v>
       </c>
       <c r="E2">
-        <v>0.464</v>
+        <v>0.7044999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.166</v>
+        <v>2.146</v>
       </c>
       <c r="L2">
-        <v>0.08643256185155626</v>
+        <v>0.09495575221238939</v>
       </c>
       <c r="M2">
-        <v>2.6794</v>
+        <v>0.193</v>
       </c>
       <c r="N2">
-        <v>0.02467219152854512</v>
+        <v>0.003893483962073835</v>
       </c>
       <c r="O2">
-        <v>1.237026777469991</v>
+        <v>0.08993476234855546</v>
       </c>
       <c r="P2">
-        <v>2.6794</v>
+        <v>0.193</v>
       </c>
       <c r="Q2">
-        <v>0.02467219152854512</v>
+        <v>0.003893483962073835</v>
       </c>
       <c r="R2">
-        <v>1.237026777469991</v>
+        <v>0.08993476234855546</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,55 +639,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>21.9</v>
+        <v>51.26000000000001</v>
       </c>
       <c r="V2">
-        <v>0.2016574585635359</v>
+        <v>1.034093201533185</v>
       </c>
       <c r="W2">
-        <v>0.1041951663130046</v>
+        <v>0.04650849944967592</v>
       </c>
       <c r="X2">
-        <v>0.06604838876316116</v>
+        <v>0.05366381183770717</v>
       </c>
       <c r="Y2">
-        <v>0.03814677754984348</v>
+        <v>-0.00715531238803125</v>
       </c>
       <c r="Z2">
-        <v>1.016839115439237</v>
+        <v>0.6764036872979767</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05863783304860938</v>
+        <v>0.0505699239683618</v>
       </c>
       <c r="AC2">
-        <v>-0.05863783304860938</v>
+        <v>-0.0505699239683618</v>
       </c>
       <c r="AD2">
-        <v>20.56</v>
+        <v>12.369</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>20.56</v>
+        <v>12.369</v>
       </c>
       <c r="AG2">
-        <v>-1.34</v>
+        <v>-38.89100000000001</v>
       </c>
       <c r="AH2">
-        <v>0.1591824094146795</v>
+        <v>0.1996964755646685</v>
       </c>
       <c r="AI2">
-        <v>0.3521754025351148</v>
+        <v>0.2038431747392014</v>
       </c>
       <c r="AJ2">
-        <v>-0.01249300764497483</v>
+        <v>-3.641820395168089</v>
       </c>
       <c r="AK2">
-        <v>-0.03673245614035087</v>
+        <v>-4.128994585412466</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -704,7 +704,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Russian Public Joint-Stock Commercial Roads Bank (Public joint-stock company) (MISX:RDRB)</t>
+          <t>Kuznetsky Bank Public Joint Stock Company (MISX:KUZB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -713,7 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.135</v>
+        <v>0.00664</v>
+      </c>
+      <c r="E3">
+        <v>-0.366</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -728,28 +731,28 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.636</v>
+        <v>0.046</v>
       </c>
       <c r="L3">
-        <v>0.03763313609467456</v>
+        <v>0.008846153846153846</v>
       </c>
       <c r="M3">
-        <v>2.3864</v>
+        <v>0.193</v>
       </c>
       <c r="N3">
-        <v>0.02351133004926109</v>
+        <v>0.04742014742014742</v>
       </c>
       <c r="O3">
-        <v>3.752201257861635</v>
+        <v>4.195652173913044</v>
       </c>
       <c r="P3">
-        <v>2.3864</v>
+        <v>0.193</v>
       </c>
       <c r="Q3">
-        <v>0.02351133004926109</v>
+        <v>0.04742014742014742</v>
       </c>
       <c r="R3">
-        <v>3.752201257861635</v>
+        <v>4.195652173913044</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -758,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>15.5</v>
+        <v>6.06</v>
       </c>
       <c r="V3">
-        <v>0.1527093596059113</v>
+        <v>1.488943488943489</v>
       </c>
       <c r="W3">
-        <v>0.02427480916030534</v>
+        <v>0.004781704781704782</v>
       </c>
       <c r="X3">
-        <v>0.05754652913552531</v>
+        <v>0.0534787655650044</v>
       </c>
       <c r="Y3">
-        <v>-0.03327171997521997</v>
+        <v>-0.04869706078329962</v>
       </c>
       <c r="Z3">
-        <v>0.7466313231720786</v>
+        <v>0.5990783410138251</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05683907454141339</v>
+        <v>0.05015651416672787</v>
       </c>
       <c r="AC3">
-        <v>-0.05683907454141339</v>
+        <v>-0.05015651416672787</v>
       </c>
       <c r="AD3">
-        <v>15.1</v>
+        <v>0.969</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>15.1</v>
+        <v>0.969</v>
       </c>
       <c r="AG3">
-        <v>-0.4000000000000004</v>
+        <v>-5.090999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.1295025728987993</v>
+        <v>0.1923000595356221</v>
       </c>
       <c r="AI3">
-        <v>0.348729792147806</v>
+        <v>0.1103770361088962</v>
       </c>
       <c r="AJ3">
-        <v>-0.003956478733926808</v>
+        <v>4.986287952987271</v>
       </c>
       <c r="AK3">
-        <v>-0.01438848920863311</v>
+        <v>-1.872379551305626</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -823,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kuznetsky Bank Public Joint Stock Company (MISX:KUZB)</t>
+          <t>The Russian Public Joint-Stock Commercial Roads Bank (Public joint-stock company) (MISX:RDRB)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -832,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.09609999999999999</v>
+        <v>0.126</v>
       </c>
       <c r="E4">
-        <v>0.464</v>
+        <v>1.775</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -850,85 +853,82 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
-        <v>0.1875</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="M4">
-        <v>0.293</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.04126760563380281</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.1915032679738562</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>0.293</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.04126760563380281</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.1915032679738562</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>6.4</v>
+        <v>45.2</v>
       </c>
       <c r="V4">
-        <v>0.9014084507042255</v>
+        <v>0.9934065934065934</v>
       </c>
       <c r="W4">
-        <v>0.184115523465704</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="X4">
-        <v>0.07455024839079701</v>
+        <v>0.05384885811040994</v>
       </c>
       <c r="Y4">
-        <v>0.1095652750749069</v>
+        <v>0.03438643600723712</v>
       </c>
       <c r="Z4">
-        <v>4.05970149253731</v>
+        <v>0.7035419699175157</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.06043659155580537</v>
+        <v>0.05098333376999572</v>
       </c>
       <c r="AC4">
-        <v>-0.06043659155580537</v>
+        <v>-0.05098333376999572</v>
       </c>
       <c r="AD4">
-        <v>5.46</v>
+        <v>11.4</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>5.46</v>
+        <v>11.4</v>
       </c>
       <c r="AG4">
-        <v>-0.9400000000000004</v>
+        <v>-33.8</v>
       </c>
       <c r="AH4">
-        <v>0.4347133757961784</v>
+        <v>0.2003514938488576</v>
       </c>
       <c r="AI4">
-        <v>0.3620689655172414</v>
+        <v>0.2196531791907514</v>
       </c>
       <c r="AJ4">
-        <v>-0.1525974025974027</v>
+        <v>-2.88888888888889</v>
       </c>
       <c r="AK4">
-        <v>-0.1082949308755761</v>
+        <v>-5.044776119402989</v>
       </c>
       <c r="AL4">
         <v>0</v>
